--- a/dados/tabela/tabela-rodada_27.xlsx
+++ b/dados/tabela/tabela-rodada_27.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tabela" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2173 +434,2685 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Rk</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Squad</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>GF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Pts</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Pts/MP</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xG</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>xGA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>xGD</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>xGD/90</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Last 5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>xGConv</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>xGAConv</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>GF/MP</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>GA/MP</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>expG</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>xG_casa</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>xG_fora</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>xG_total</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>GF_casa</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>GF_fora</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>GF_total</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>GA_casa</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>GA_fora</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>GA_total</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>xG_sofrido_casa</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>xG_sofrido_fora</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>xG_5casa</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>xG_5fora</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>xG_5total</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>GF_5casa</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>GF_5fora</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>GF_5total</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>GA_5casa</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>GA_5fora</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>GA_5total</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>xG_5sofrido_casa</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>xG_5sofrido_fora</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Sh_casa</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>SoT_casa</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Saves_casa</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>GCA_casa</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Tklw_casa</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Sh_fora</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>SoT_fora</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Saves_fora</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>GCA_fora</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Tklw_fora</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Botafogo (RJ)</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>18</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>44</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>17</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>27</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>58</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.15</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>35.2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>33.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1.7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.06</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>L L D W W</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>8.799999999999997</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>-16.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1.62962962962963</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6296296296296297</v>
       </c>
       <c r="U2" t="n">
         <v>0.6296296296296297</v>
       </c>
       <c r="V2" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.761538461538462</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.8785714285714284</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>2.64010989010989</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>2.153846153846154</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>3.296703296703297</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.247252747252747</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.9615384615384615</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.75</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>2.64010989010989</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
       </c>
       <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
         <v>2</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>1</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>0.75</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>1.75</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16.23076923076923</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>6.153846153846154</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>3.461538461538462</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>10.69230769230769</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>16.21428571428572</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>11.64285714285714</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>39</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1.81</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>40.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>31.2</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.33</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>W W W D W</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>-1.100000000000001</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>-7.199999999999999</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>1.444444444444444</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.8888888888888887</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1.792307692307692</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>1.207142857142857</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>2.999450549450549</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.615384615384615</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>1.285714285714286</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>2.901098901098901</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.758241758241758</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>1.023076923076923</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>1.292857142857143</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>2.1</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>1.6</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>2.999450549450549</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
       </c>
       <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
         <v>4</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>1.566666666666667</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>19.30769230769231</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>6.384615384615385</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.153846153846154</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>11.92857142857143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>40</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>31</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>47</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1.74</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>37.1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>34.8</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.3</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>L D W D W</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>-3.799999999999997</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>1.481481481481481</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.148148148148148</v>
       </c>
       <c r="U4" t="n">
         <v>1.148148148148148</v>
       </c>
       <c r="V4" t="n">
+        <v>1.148148148148148</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.616666666666666</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>1.18</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>2.796666666666666</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>1.416666666666667</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>2.95</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>1.466666666666667</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>2.216666666666667</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>1.183333333333334</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>1.373333333333334</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0.95</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>2.796666666666666</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.5</v>
       </c>
       <c r="AM4" t="n">
         <v>1.5</v>
       </c>
       <c r="AN4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>0.4666666666666667</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12.41666666666667</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15.46666666666667</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>12.26666666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>43</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>37</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>44</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1.63</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>35.9</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>38.3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-2.4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.09</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>D W D L L</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>-1.299999999999997</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.592592592592593</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.37037037037037</v>
       </c>
       <c r="U5" t="n">
         <v>1.37037037037037</v>
       </c>
       <c r="V5" t="n">
+        <v>1.37037037037037</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.514285714285714</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>1.130769230769231</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>2.645054945054945</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1.928571428571429</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>3.15934065934066</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>1.923076923076923</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>2.78021978021978</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>1.05</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>1</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>2.645054945054945</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
       </c>
       <c r="AK5" t="n">
         <v>1</v>
       </c>
       <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
         <v>2</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>1</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>2</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>3</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>0.95</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>1.9</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>4.928571428571429</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>11.14285714285714</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>5.153846153846154</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.153846153846154</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.923076923076923</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9.615384615384615</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>40</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>24</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>16</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>44</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1.63</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>38.7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>28.3</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>10.3</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.38</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>W L L L L</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>-4.300000000000001</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>1.481481481481481</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.8888888888888888</v>
       </c>
       <c r="U6" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="V6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.8</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>1.107142857142857</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>2.907142857142857</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>1.538461538461539</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>2.967032967032967</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>1.78021978021978</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>0.7538461538461537</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>1.328571428571428</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>2.907142857142857</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>0.9333333333333332</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>1.65</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>17.69230769230769</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5.692307692307693</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.538461538461538</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9.538461538461538</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.928571428571428</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>11.35714285714286</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Ath Paranaense</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>7</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>40</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>31</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>44</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1.63</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>38</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>31</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>6.9</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.26</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>W W L D W</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>1.481481481481481</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.148148148148148</v>
       </c>
       <c r="U7" t="n">
         <v>1.148148148148148</v>
       </c>
       <c r="V7" t="n">
+        <v>1.148148148148148</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.75</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>1.046153846153846</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>2.796153846153846</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>1.785714285714286</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>2.93956043956044</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>2.302197802197802</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>1.1</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>1.207692307692308</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>1.366666666666666</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>2.796153846153846</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>3.166666666666667</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>1</v>
       </c>
       <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
         <v>2</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>0.7</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>0.8666666666666667</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>17.21428571428572</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>5.285714285714286</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13.23076923076923</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.461538461538462</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.923076923076923</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>8.461538461538462</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>32</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>21</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>11</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>43</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1.59</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>32.4</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>27.4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.19</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>W W W L W</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>-6.399999999999999</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>1.185185185185185</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.7777777777777777</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>1.292307692307692</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>1.107142857142857</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>2.399450549450549</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>2.373626373626374</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.6428571428571429</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>1.565934065934066</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>0.9076923076923076</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>1.114285714285715</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>2.399450549450549</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>3</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>0.4333333333333333</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>0.8</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>15.30769230769231</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.230769230769231</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2.153846153846154</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>10.84615384615385</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>10.21428571428571</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>12</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>33</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>27</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>42</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1.56</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>40.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>31.3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.34</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>W W D W L</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>-7.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>-4.300000000000001</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1.222222222222222</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.835714285714286</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>2.98956043956044</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>1.642857142857143</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>2.412087912087912</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>1.076923076923077</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>2.005494505494505</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>1</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>1.338461538461539</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>0.9</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>2.98956043956044</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>1</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>3</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>1</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>1.1</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>1.8</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5.785714285714286</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11.21428571428571</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>14.76923076923077</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>5.692307692307693</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>10.92307692307692</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>27</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>6</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>37</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>34</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>42</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>1.56</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>36.9</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>35.2</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1.8</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>L W L L D</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>-1.200000000000003</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>1.37037037037037</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.259259259259259</v>
       </c>
       <c r="U10" t="n">
         <v>1.259259259259259</v>
       </c>
       <c r="V10" t="n">
+        <v>1.259259259259259</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.353333333333333</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>1.383333333333334</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>2.736666666666667</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>2.7</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>1.916666666666667</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>2.65</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>1.75</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>1.1</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>1.05</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>2.736666666666667</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>1</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
         <v>1.3</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>14.73333333333333</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>16.41666666666667</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>12.91666666666667</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>27</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>11</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>29</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>30</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>36</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>1.33</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>26.9</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>29.4</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>-2.5</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>-0.09</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>D L W D W</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>1.074074074074074</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.111111111111111</v>
       </c>
       <c r="U11" t="n">
         <v>1.111111111111111</v>
       </c>
       <c r="V11" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.8071428571428571</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>2.007142857142857</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>1.307692307692308</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>2.164835164835165</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>2.225274725274725</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.976923076923077</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>1.192857142857143</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>2.007142857142857</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
         <v>0.3666666666666667</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
         <v>0.8999999999999999</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>13.76923076923077</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.538461538461538</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>2.153846153846154</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>10.76923076923077</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>27</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>9</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>31</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>29</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>35</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>1.3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>36.7</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>27.6</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>9.1</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.34</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>L W W D L</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>-5.700000000000003</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>1.148148148148148</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.074074074074074</v>
       </c>
       <c r="U12" t="n">
         <v>1.074074074074074</v>
       </c>
       <c r="V12" t="n">
+        <v>1.074074074074074</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.621428571428572</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>1.092307692307692</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>2.713736263736264</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1.642857142857143</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>2.258241758241758</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>2.15934065934066</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>0.85</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>1.207692307692308</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>1.95</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>2.713736263736264</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>0.65</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="n">
         <v>0.7999999999999999</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>16.28571428571428</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5.642857142857143</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10.42857142857143</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13.30769230769231</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2.923076923076923</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>11.23076923076923</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>32</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-9</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>32</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>1.19</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>27.8</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>34.7</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>-6.9</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>-0.26</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>W L L W L</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>-4.800000000000001</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>-2.700000000000003</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.8518518518518519</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.185185185185185</v>
       </c>
       <c r="U13" t="n">
         <v>1.185185185185185</v>
       </c>
       <c r="V13" t="n">
+        <v>1.185185185185185</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.215384615384616</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>0.85</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>2.065384615384616</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>1.725274725274725</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>1.076923076923077</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>1.285714285714286</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>2.362637362637363</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>1.123076923076923</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>1.435714285714285</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>1.433333333333333</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>2.065384615384616</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="n">
         <v>1.4</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>14.23076923076923</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.384615384615385</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>2.538461538461538</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9.846153846153847</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>14.57142857142857</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>9.928571428571429</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>9</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>33</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>35</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>32</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1.19</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>28.2</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>36.3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>-8.1</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>-0.3</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>D W L D D</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>-1.299999999999997</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>1.222222222222222</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.296296296296296</v>
       </c>
       <c r="U14" t="n">
         <v>1.296296296296296</v>
       </c>
       <c r="V14" t="n">
+        <v>1.296296296296296</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.284615384615385</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.8142857142857142</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>2.098901098901099</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>1.538461538461539</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>2.467032967032967</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>1</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>2.571428571428571</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>0.9692307692307692</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>1.685714285714285</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>1.05</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>2.098901098901099</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>1</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>0.7</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>2.2</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5.384615384615385</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.615384615384615</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>10.07692307692308</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>18.64285714285714</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.642857142857143</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>8.642857142857142</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>27</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>12</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>35</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>38</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>31</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1.15</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>35.5</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>39</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>-3.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>-0.13</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>W L L W W</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>-0.5</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>-1</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>1.296296296296296</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>1.407407407407407</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>1.407407407407408</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>1.53076923076923</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>1.1</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>2.63076923076923</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>1.615384615384615</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>1</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>2.615384615384615</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>1.642857142857143</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>2.796703296703297</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>1.176923076923077</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>1.692857142857143</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>1.4</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>2.1</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>2.63076923076923</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>1</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>4.333333333333334</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>1</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AQ15" t="n">
         <v>1.6</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
         <v>1.8</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>15.92307692307692</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2.615384615384615</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>12.92307692307692</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>10.78571428571429</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>27</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>24</v>
       </c>
       <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>31</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1.15</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>32.7</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>33.1</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>-0.4</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>-0.02</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>W L D D L</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>-8.700000000000003</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>-9.100000000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.8888888888888888</v>
       </c>
       <c r="T16" t="n">
         <v>0.8888888888888888</v>
@@ -2609,745 +3121,943 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="V16" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.192857142857143</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>2.423626373626374</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>1.384615384615385</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>1.813186813186813</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>1</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>1.785714285714286</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>1.014285714285714</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>1.446153846153846</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>0.8666666666666666</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>2.423626373626374</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.5</v>
       </c>
       <c r="AM16" t="n">
         <v>1.5</v>
       </c>
       <c r="AN16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>1.45</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
         <v>0.6333333333333333</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>15.21428571428571</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.928571428571428</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12.23076923076923</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>3.076923076923077</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>9.846153846153847</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>27</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>13</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>28</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>38</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-10</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>30</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>1.11</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>35.9</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>33.6</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>2.3</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.09</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W W L D W</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>-7.899999999999999</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>1.037037037037037</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.407407407407407</v>
       </c>
       <c r="U17" t="n">
         <v>1.407407407407407</v>
       </c>
       <c r="V17" t="n">
+        <v>1.407407407407407</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.657142857142857</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>0.976923076923077</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>2.634065934065934</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>2.065934065934066</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>1.769230769230769</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>2.84065934065934</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>0.9428571428571428</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>1.592307692307692</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>1.95</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>0.9</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>2.634065934065934</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>2.5</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>1</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>3.5</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>0.75</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>4</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>4.75</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>1.125</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
         <v>2.4</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>14.35714285714286</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>2.928571428571428</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.642857142857143</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>9.428571428571429</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>5.923076923076923</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.153846153846154</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>3.153846153846154</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>11.69230769230769</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Santos</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>13</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>30</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>45</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>30</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>1.11</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>31.5</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>38.8</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>-7.4</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>-0.27</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>L W W W L</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>-1.5</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>6.200000000000003</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>1.111111111111111</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.666666666666667</v>
       </c>
       <c r="U18" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="V18" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.414285714285714</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>0.8923076923076922</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>2.306593406593406</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>1.642857142857143</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>0.5384615384615384</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>2.181318681318681</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>1.769230769230769</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>3.34065934065934</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>1.15</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>1.746153846153846</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>2</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>2.306593406593406</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>2</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>1</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AQ18" t="n">
         <v>1.566666666666666</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="n">
         <v>1.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>13.64285714285714</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>18.15384615384615</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>6.692307692307693</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.538461538461538</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>3.307692307692307</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>11.76923076923077</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Goias</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>9</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>11</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>27</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>37</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-10</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>30</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>1.11</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>26.4</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>31.6</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>-5.2</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>-0.19</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>L D D L W</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>5.399999999999999</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.37037037037037</v>
       </c>
       <c r="U19" t="n">
         <v>1.37037037037037</v>
       </c>
       <c r="V19" t="n">
+        <v>1.37037037037037</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.185714285714286</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>0.7461538461538463</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>1.931868131868132</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>1.214285714285714</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>1.983516483516484</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>1.307692307692308</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>2.736263736263736</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>0.95</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
         <v>1.4</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>1.1</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>0.45</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>1.931868131868132</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>2</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>2.5</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>1</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>3</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AQ19" t="n">
         <v>1</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="n">
         <v>0.95</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>13.64285714285714</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.785714285714286</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>10.64285714285714</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>17.84615384615385</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>4.769230769230769</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>2.384615384615385</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>10.69230769230769</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>27</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
         <v>17</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>29</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>57</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-28</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>20</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.74</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>28.1</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>44.3</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>-16.2</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>-0.6</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>L L W W L</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>12.7</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>1.074074074074074</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.111111111111111</v>
       </c>
       <c r="U20" t="n">
         <v>2.111111111111111</v>
       </c>
       <c r="V20" t="n">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.315384615384616</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>2.101098901098901</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>1.076923076923077</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>2.148351648351648</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>1.538461538461539</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>2.642857142857143</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>4.181318681318682</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>1.369230769230769</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>1.9</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>1</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>0.65</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>2.101098901098901</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>3</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>5.333333333333334</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>1.7</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
         <v>2.05</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>13.15384615384615</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4.384615384615385</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>3.461538461538462</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>15.78571428571429</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>5.928571428571429</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>10.64285714285714</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>America (MG)</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>27</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>6</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>17</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>30</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>56</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-26</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>18</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.67</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>35.6</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>40.6</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>-5</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>-0.19</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>L L D L L</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>-5.600000000000001</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>15.4</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>1.111111111111111</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.074074074074074</v>
       </c>
       <c r="U21" t="n">
         <v>2.074074074074074</v>
       </c>
       <c r="V21" t="n">
+        <v>2.074074074074074</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.435714285714285</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>1.207692307692308</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>2.643406593406593</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>1</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>2.230769230769231</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>1.785714285714286</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>2.384615384615385</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>4.170329670329671</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>1.235714285714286</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AG21" t="n">
         <v>1.807692307692308</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>2.05</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>0.9333333333333332</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>2.643406593406593</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>2.166666666666667</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2</v>
       </c>
       <c r="AN21" t="n">
         <v>2</v>
       </c>
       <c r="AO21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP21" t="n">
         <v>4</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AQ21" t="n">
         <v>1.15</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="n">
         <v>1.5</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>14.64285714285714</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>3.076923076923077</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>3.461538461538462</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>9.23076923076923</v>
       </c>
     </row>
   </sheetData>
